--- a/results_edited.xlsx
+++ b/results_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjmcc\Desktop\Oxford\Dissertation\Modelling\Repo\Joshua-Jones-Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{76B59743-C501-4D32-A48A-18F06ADDFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{32740092-D5BA-418E-ADB4-162B249C5A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C538A782-A918-427B-8346-FB1164593F0D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9621016D-42D7-46DE-8700-1CA0CFB3E046}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="89">
   <si>
     <t>period</t>
   </si>
@@ -68,6 +68,225 @@
   </si>
   <si>
     <t>total_co2</t>
+  </si>
+  <si>
+    <t>1517.220717131474</t>
+  </si>
+  <si>
+    <t>667.5771155378487</t>
+  </si>
+  <si>
+    <t>0.024067537996163492</t>
+  </si>
+  <si>
+    <t>5.738930999999999</t>
+  </si>
+  <si>
+    <t>1534.001217131474</t>
+  </si>
+  <si>
+    <t>673.3667840758449</t>
+  </si>
+  <si>
+    <t>2664.6310756972107</t>
+  </si>
+  <si>
+    <t>1172.437673306773</t>
+  </si>
+  <si>
+    <t>0.042268806994245234</t>
+  </si>
+  <si>
+    <t>2681.4115756972105</t>
+  </si>
+  <si>
+    <t>1178.2455431137673</t>
+  </si>
+  <si>
+    <t>7333.127490039837</t>
+  </si>
+  <si>
+    <t>494.98610557768893</t>
+  </si>
+  <si>
+    <t>3110.3999999999996</t>
+  </si>
+  <si>
+    <t>10460.307990039837</t>
+  </si>
+  <si>
+    <t>1869.379076016758</t>
+  </si>
+  <si>
+    <t>19325.159362549795</t>
+  </si>
+  <si>
+    <t>1304.448256972111</t>
+  </si>
+  <si>
+    <t>22452.339862549794</t>
+  </si>
+  <si>
+    <t>2678.844546199519</t>
+  </si>
+  <si>
+    <t>15936.25498007968</t>
+  </si>
+  <si>
+    <t>55301.25498007967</t>
+  </si>
+  <si>
+    <t>3732.834711155378</t>
+  </si>
+  <si>
+    <t>0.015304592423954972</t>
+  </si>
+  <si>
+    <t>58428.43548007967</t>
+  </si>
+  <si>
+    <t>5107.240956747802</t>
+  </si>
+  <si>
+    <t>79285.31872509958</t>
+  </si>
+  <si>
+    <t>5351.759013944222</t>
+  </si>
+  <si>
+    <t>0.021942169101372283</t>
+  </si>
+  <si>
+    <t>82412.49922509957</t>
+  </si>
+  <si>
+    <t>6726.171897113324</t>
+  </si>
+  <si>
+    <t>23904.38247011952</t>
+  </si>
+  <si>
+    <t>103269.38247011938</t>
+  </si>
+  <si>
+    <t>6970.683316733059</t>
+  </si>
+  <si>
+    <t>0.028579745778789568</t>
+  </si>
+  <si>
+    <t>106396.56297011937</t>
+  </si>
+  <si>
+    <t>8345.102837478837</t>
+  </si>
+  <si>
+    <t>27888.44621513944</t>
+  </si>
+  <si>
+    <t>127253.44621513918</t>
+  </si>
+  <si>
+    <t>8589.607619521894</t>
+  </si>
+  <si>
+    <t>0.035217322456206845</t>
+  </si>
+  <si>
+    <t>130380.62671513917</t>
+  </si>
+  <si>
+    <t>139245.4780876494</t>
+  </si>
+  <si>
+    <t>9399.069770916334</t>
+  </si>
+  <si>
+    <t>142372.65858764938</t>
+  </si>
+  <si>
+    <t>10773.499248027128</t>
+  </si>
+  <si>
+    <t>25896.41434262948</t>
+  </si>
+  <si>
+    <t>115261.41434262959</t>
+  </si>
+  <si>
+    <t>7780.145468127496</t>
+  </si>
+  <si>
+    <t>0.031898534117498295</t>
+  </si>
+  <si>
+    <t>118388.59484262958</t>
+  </si>
+  <si>
+    <t>9154.568307661613</t>
+  </si>
+  <si>
+    <t>21912.350597609562</t>
+  </si>
+  <si>
+    <t>91277.35059760978</t>
+  </si>
+  <si>
+    <t>94404.53109760977</t>
+  </si>
+  <si>
+    <t>7535.637367296101</t>
+  </si>
+  <si>
+    <t>31872.50996015936</t>
+  </si>
+  <si>
+    <t>151237.50996015957</t>
+  </si>
+  <si>
+    <t>10208.53192231077</t>
+  </si>
+  <si>
+    <t>154364.69046015956</t>
+  </si>
+  <si>
+    <t>11582.964718209903</t>
+  </si>
+  <si>
+    <t>35856.57370517928</t>
+  </si>
+  <si>
+    <t>175221.57370517938</t>
+  </si>
+  <si>
+    <t>11827.456225099608</t>
+  </si>
+  <si>
+    <t>0.048492475811041574</t>
+  </si>
+  <si>
+    <t>178348.75420517937</t>
+  </si>
+  <si>
+    <t>13201.895658575419</t>
+  </si>
+  <si>
+    <t>33864.54183266932</t>
+  </si>
+  <si>
+    <t>163229.54183266917</t>
+  </si>
+  <si>
+    <t>11017.99407370517</t>
+  </si>
+  <si>
+    <t>166356.72233266916</t>
+  </si>
+  <si>
+    <t>12392.430188392642</t>
+  </si>
+  <si>
+    <t>kgCO2/job</t>
   </si>
 </sst>
 </file>
@@ -551,8 +770,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -927,26 +1147,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47605450-B5D4-4AB9-9BED-FFA980DA9342}">
-  <dimension ref="A1:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5FCE51-1D40-431A-BBE4-58C7D2094E60}">
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1018,14 +1244,14 @@
       <c r="G2">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H2">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I2">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J2">
-        <v>2.4067537996163402E-2</v>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K2">
         <v>1350</v>
@@ -1033,24 +1259,20 @@
       <c r="L2">
         <v>16.7805</v>
       </c>
-      <c r="M2">
-        <v>5738.9309999999996</v>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N2">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O2">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P2">
-        <v>673316.09727538598</v>
-      </c>
-      <c r="Q2">
-        <f>H2+L2</f>
-        <v>1534.0012171314702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1072,14 +1294,14 @@
       <c r="G3">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H3">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I3">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J3">
-        <v>2.4067537996163402E-2</v>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1350</v>
@@ -1087,20 +1309,20 @@
       <c r="L3">
         <v>16.7805</v>
       </c>
-      <c r="M3">
-        <v>5738.9309999999996</v>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N3">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O3">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P3">
-        <v>673316.09727538598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1122,14 +1344,14 @@
       <c r="G4">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H4">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I4">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J4">
-        <v>2.4067537996163402E-2</v>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1350</v>
@@ -1137,20 +1359,20 @@
       <c r="L4">
         <v>16.7805</v>
       </c>
-      <c r="M4">
-        <v>5738.9309999999996</v>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N4">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O4">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P4">
-        <v>673316.09727538598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1172,14 +1394,14 @@
       <c r="G5">
         <v>4626.0956175298797</v>
       </c>
-      <c r="H5">
-        <v>2664.6310756972098</v>
-      </c>
-      <c r="I5">
-        <v>1172437.6733067699</v>
-      </c>
-      <c r="J5">
-        <v>4.2268806994245199E-2</v>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K5">
         <v>1350</v>
@@ -1187,20 +1409,20 @@
       <c r="L5">
         <v>16.7805</v>
       </c>
-      <c r="M5">
-        <v>5738.9309999999996</v>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N5">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O5">
-        <v>2681.4115756972101</v>
-      </c>
-      <c r="P5">
-        <v>1178176.6732455799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1210,11 +1432,11 @@
       <c r="C6">
         <v>1218.12749003984</v>
       </c>
-      <c r="D6">
-        <v>7333.1274900398303</v>
-      </c>
-      <c r="E6">
-        <v>494986.10557768802</v>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F6">
         <v>2.0294390691203402E-3</v>
@@ -1222,11 +1444,11 @@
       <c r="G6">
         <v>5400</v>
       </c>
-      <c r="H6">
-        <v>3110.3999999999901</v>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I6">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J6">
         <v>4.9340000000000002E-2</v>
@@ -1237,20 +1459,20 @@
       <c r="L6">
         <v>16.7805</v>
       </c>
-      <c r="M6">
-        <v>5738.9309999999996</v>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N6">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O6">
-        <v>10460.307990039801</v>
-      </c>
-      <c r="P6">
-        <v>1869301.11461712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1260,11 +1482,11 @@
       <c r="C7">
         <v>3210.1593625497999</v>
       </c>
-      <c r="D7">
-        <v>19325.159362549701</v>
-      </c>
-      <c r="E7">
-        <v>1304448.2569721099</v>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F7">
         <v>5.3482274078289899E-3</v>
@@ -1272,11 +1494,11 @@
       <c r="G7">
         <v>5400</v>
       </c>
-      <c r="H7">
-        <v>3110.3999999999901</v>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J7">
         <v>4.9340000000000002E-2</v>
@@ -1287,46 +1509,46 @@
       <c r="L7">
         <v>16.7805</v>
       </c>
-      <c r="M7">
-        <v>5738.9309999999996</v>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N7">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O7">
-        <v>22452.339862549699</v>
-      </c>
-      <c r="P7">
-        <v>2678763.2693303302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>15936.254980079601</v>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C8">
         <v>9186.2549800796805</v>
       </c>
-      <c r="D8">
-        <v>55301.254980079597</v>
-      </c>
-      <c r="E8">
-        <v>3732834.7111553699</v>
-      </c>
-      <c r="F8">
-        <v>1.53045924239549E-2</v>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G8">
         <v>5400</v>
       </c>
-      <c r="H8">
-        <v>3110.3999999999901</v>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J8">
         <v>4.9340000000000002E-2</v>
@@ -1337,20 +1559,20 @@
       <c r="L8">
         <v>16.7805</v>
       </c>
-      <c r="M8">
-        <v>5738.9309999999996</v>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N8">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O8">
-        <v>58428.435480079599</v>
-      </c>
-      <c r="P8">
-        <v>5107149.7334699696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1360,23 +1582,23 @@
       <c r="C9">
         <v>13170.3187250996</v>
       </c>
-      <c r="D9">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E9">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F9">
-        <v>2.19421691013722E-2</v>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G9">
         <v>5400</v>
       </c>
-      <c r="H9">
-        <v>3110.3999999999901</v>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I9">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J9">
         <v>4.9340000000000002E-2</v>
@@ -1387,46 +1609,46 @@
       <c r="L9">
         <v>16.7805</v>
       </c>
-      <c r="M9">
-        <v>5738.9309999999996</v>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N9">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O9">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P9">
-        <v>6726074.04289639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>23904.382470119501</v>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C10">
         <v>17154.382470119501</v>
       </c>
-      <c r="D10">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E10">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F10">
-        <v>2.8579745778789498E-2</v>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G10">
         <v>5400</v>
       </c>
-      <c r="H10">
-        <v>3110.3999999999901</v>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I10">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J10">
         <v>4.9340000000000002E-2</v>
@@ -1437,46 +1659,46 @@
       <c r="L10">
         <v>16.7805</v>
       </c>
-      <c r="M10">
-        <v>5738.9309999999996</v>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N10">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O10">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P10">
-        <v>8344998.3523228001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>27888.4462151394</v>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>21138.4462151394</v>
       </c>
-      <c r="D11">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E11">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F11">
-        <v>3.5217322456206797E-2</v>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G11">
         <v>5400</v>
       </c>
-      <c r="H11">
-        <v>3110.3999999999901</v>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J11">
         <v>4.9340000000000002E-2</v>
@@ -1487,20 +1709,20 @@
       <c r="L11">
         <v>16.7805</v>
       </c>
-      <c r="M11">
-        <v>5738.9309999999996</v>
+      <c r="M11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N11">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O11">
-        <v>130380.62671513901</v>
+      <c r="O11" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P11">
-        <v>9963922.6617492102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9964.03377784435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1510,11 +1732,11 @@
       <c r="C12">
         <v>23130.478087649401</v>
       </c>
-      <c r="D12">
-        <v>139245.47808764901</v>
-      </c>
-      <c r="E12">
-        <v>9399069.7709163297</v>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F12">
         <v>3.85361107949155E-2</v>
@@ -1522,11 +1744,11 @@
       <c r="G12">
         <v>5400</v>
       </c>
-      <c r="H12">
-        <v>3110.3999999999901</v>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J12">
         <v>4.9340000000000002E-2</v>
@@ -1537,20 +1759,20 @@
       <c r="L12">
         <v>16.7805</v>
       </c>
-      <c r="M12">
-        <v>5738.9309999999996</v>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N12">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O12">
-        <v>142372.658587649</v>
-      </c>
-      <c r="P12">
-        <v>10773384.816462399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1560,11 +1782,11 @@
       <c r="C13">
         <v>23130.478087649401</v>
       </c>
-      <c r="D13">
-        <v>139245.47808764901</v>
-      </c>
-      <c r="E13">
-        <v>9399069.7709163297</v>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F13">
         <v>3.85361107949155E-2</v>
@@ -1572,11 +1794,11 @@
       <c r="G13">
         <v>5400</v>
       </c>
-      <c r="H13">
-        <v>3110.3999999999901</v>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J13">
         <v>4.9340000000000002E-2</v>
@@ -1587,46 +1809,46 @@
       <c r="L13">
         <v>16.7805</v>
       </c>
-      <c r="M13">
-        <v>5738.9309999999996</v>
+      <c r="M13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N13">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O13">
-        <v>142372.658587649</v>
-      </c>
-      <c r="P13">
-        <v>10773384.816462399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>27888.4462151394</v>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
         <v>21138.4462151394</v>
       </c>
-      <c r="D14">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E14">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F14">
-        <v>3.5217322456206797E-2</v>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G14">
         <v>5400</v>
       </c>
-      <c r="H14">
-        <v>3110.3999999999901</v>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J14">
         <v>4.9340000000000002E-2</v>
@@ -1637,46 +1859,46 @@
       <c r="L14">
         <v>16.7805</v>
       </c>
-      <c r="M14">
-        <v>5738.9309999999996</v>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N14">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O14">
-        <v>130380.62671513901</v>
+      <c r="O14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P14">
-        <v>9963922.6617492102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9964.03377784435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>25896.414342629399</v>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>19146.414342629501</v>
       </c>
-      <c r="D15">
-        <v>115261.414342629</v>
-      </c>
-      <c r="E15">
-        <v>7780145.46812749</v>
-      </c>
-      <c r="F15">
-        <v>3.1898534117498198E-2</v>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G15">
         <v>5400</v>
       </c>
-      <c r="H15">
-        <v>3110.3999999999901</v>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J15">
         <v>4.9340000000000002E-2</v>
@@ -1687,46 +1909,46 @@
       <c r="L15">
         <v>16.7805</v>
       </c>
-      <c r="M15">
-        <v>5738.9309999999996</v>
+      <c r="M15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N15">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O15">
-        <v>118388.594842629</v>
-      </c>
-      <c r="P15">
-        <v>9154460.5070360303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>23904.382470119501</v>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C16">
         <v>17154.382470119501</v>
       </c>
-      <c r="D16">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E16">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F16">
-        <v>2.8579745778789498E-2</v>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G16">
         <v>5400</v>
       </c>
-      <c r="H16">
-        <v>3110.3999999999901</v>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I16">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J16">
         <v>4.9340000000000002E-2</v>
@@ -1737,34 +1959,34 @@
       <c r="L16">
         <v>16.7805</v>
       </c>
-      <c r="M16">
-        <v>5738.9309999999996</v>
+      <c r="M16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N16">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O16">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P16">
-        <v>8344998.3523228001</v>
+      <c r="O16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>21912.3505976095</v>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C17">
         <v>15162.3505976096</v>
       </c>
-      <c r="D17">
-        <v>91277.350597609693</v>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>6161221.1653386597</v>
+        <v>6161.2211653386603</v>
       </c>
       <c r="F17">
         <v>2.5260957440081E-2</v>
@@ -1772,11 +1994,11 @@
       <c r="G17">
         <v>5400</v>
       </c>
-      <c r="H17">
-        <v>3110.3999999999901</v>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I17">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J17">
         <v>4.9340000000000002E-2</v>
@@ -1787,17 +2009,17 @@
       <c r="L17">
         <v>16.7805</v>
       </c>
-      <c r="M17">
-        <v>5738.9309999999996</v>
+      <c r="M17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N17">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O17">
-        <v>94404.531097609695</v>
-      </c>
-      <c r="P17">
-        <v>7535536.1976096099</v>
+      <c r="O17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1810,23 +2032,23 @@
       <c r="C18">
         <v>13170.3187250996</v>
       </c>
-      <c r="D18">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E18">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F18">
-        <v>2.19421691013722E-2</v>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G18">
         <v>5400</v>
       </c>
-      <c r="H18">
-        <v>3110.3999999999901</v>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J18">
         <v>4.9340000000000002E-2</v>
@@ -1837,17 +2059,17 @@
       <c r="L18">
         <v>16.7805</v>
       </c>
-      <c r="M18">
-        <v>5738.9309999999996</v>
+      <c r="M18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N18">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O18">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P18">
-        <v>6726074.04289639</v>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1860,23 +2082,23 @@
       <c r="C19">
         <v>13170.3187250996</v>
       </c>
-      <c r="D19">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E19">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F19">
-        <v>2.19421691013722E-2</v>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G19">
         <v>5400</v>
       </c>
-      <c r="H19">
-        <v>3110.3999999999901</v>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I19">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J19">
         <v>4.9340000000000002E-2</v>
@@ -1887,46 +2109,46 @@
       <c r="L19">
         <v>16.7805</v>
       </c>
-      <c r="M19">
-        <v>5738.9309999999996</v>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N19">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O19">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P19">
-        <v>6726074.04289639</v>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>23904.382470119501</v>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C20">
         <v>17154.382470119501</v>
       </c>
-      <c r="D20">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E20">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F20">
-        <v>2.8579745778789498E-2</v>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G20">
         <v>5400</v>
       </c>
-      <c r="H20">
-        <v>3110.3999999999901</v>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I20">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J20">
         <v>4.9340000000000002E-2</v>
@@ -1937,46 +2159,46 @@
       <c r="L20">
         <v>16.7805</v>
       </c>
-      <c r="M20">
-        <v>5738.9309999999996</v>
+      <c r="M20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N20">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O20">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P20">
-        <v>8344998.3523228001</v>
+      <c r="O20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>27888.4462151394</v>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C21">
         <v>21138.4462151394</v>
       </c>
-      <c r="D21">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E21">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F21">
-        <v>3.5217322456206797E-2</v>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G21">
         <v>5400</v>
       </c>
-      <c r="H21">
-        <v>3110.3999999999901</v>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I21">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J21">
         <v>4.9340000000000002E-2</v>
@@ -1987,34 +2209,34 @@
       <c r="L21">
         <v>16.7805</v>
       </c>
-      <c r="M21">
-        <v>5738.9309999999996</v>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N21">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O21">
-        <v>130380.62671513901</v>
+      <c r="O21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P21">
-        <v>9963922.6617492102</v>
+        <v>9964.03377784435</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>31872.509960159299</v>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C22">
         <v>25122.509960159401</v>
       </c>
-      <c r="D22">
-        <v>151237.50996015899</v>
-      </c>
-      <c r="E22">
-        <v>10208531.922310701</v>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F22">
         <v>4.1854899133624203E-2</v>
@@ -2022,11 +2244,11 @@
       <c r="G22">
         <v>5400</v>
       </c>
-      <c r="H22">
-        <v>3110.3999999999901</v>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I22">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J22">
         <v>4.9340000000000002E-2</v>
@@ -2037,46 +2259,46 @@
       <c r="L22">
         <v>16.7805</v>
       </c>
-      <c r="M22">
-        <v>5738.9309999999996</v>
+      <c r="M22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N22">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O22">
-        <v>154364.69046015901</v>
-      </c>
-      <c r="P22">
-        <v>11582846.9711756</v>
+      <c r="O22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>35856.573705179202</v>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C23">
         <v>29106.5737051793</v>
       </c>
-      <c r="D23">
-        <v>175221.57370517901</v>
-      </c>
-      <c r="E23">
-        <v>11827456.225099601</v>
-      </c>
-      <c r="F23">
-        <v>4.8492475811041498E-2</v>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G23">
         <v>5400</v>
       </c>
-      <c r="H23">
-        <v>3110.3999999999901</v>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I23">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J23">
         <v>4.9340000000000002E-2</v>
@@ -2087,34 +2309,34 @@
       <c r="L23">
         <v>16.7805</v>
       </c>
-      <c r="M23">
-        <v>5738.9309999999996</v>
+      <c r="M23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N23">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O23">
-        <v>178348.75420517899</v>
-      </c>
-      <c r="P23">
-        <v>13201771.280602001</v>
+      <c r="O23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>33864.541832669303</v>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C24">
         <v>27114.5418326693</v>
       </c>
-      <c r="D24">
-        <v>163229.541832669</v>
-      </c>
-      <c r="E24">
-        <v>11017994.0737051</v>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F24">
         <v>4.5173687472332802E-2</v>
@@ -2122,11 +2344,11 @@
       <c r="G24">
         <v>5400</v>
       </c>
-      <c r="H24">
-        <v>3110.3999999999901</v>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J24">
         <v>4.9340000000000002E-2</v>
@@ -2137,46 +2359,46 @@
       <c r="L24">
         <v>16.7805</v>
       </c>
-      <c r="M24">
-        <v>5738.9309999999996</v>
+      <c r="M24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N24">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O24">
-        <v>166356.72233266899</v>
-      </c>
-      <c r="P24">
-        <v>12392309.1258888</v>
+      <c r="O24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>23904.382470119501</v>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C25">
         <v>17154.382470119501</v>
       </c>
-      <c r="D25">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E25">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F25">
-        <v>2.8579745778789498E-2</v>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G25">
         <v>5400</v>
       </c>
-      <c r="H25">
-        <v>3110.3999999999901</v>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I25">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J25">
         <v>4.9340000000000002E-2</v>
@@ -2187,17 +2409,17 @@
       <c r="L25">
         <v>16.7805</v>
       </c>
-      <c r="M25">
-        <v>5738.9309999999996</v>
+      <c r="M25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N25">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O25">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P25">
-        <v>8344998.3523228001</v>
+      <c r="O25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2222,14 +2444,14 @@
       <c r="G26">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H26">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I26">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J26">
-        <v>2.4067537996163402E-2</v>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K26">
         <v>1350</v>
@@ -2237,17 +2459,17 @@
       <c r="L26">
         <v>16.7805</v>
       </c>
-      <c r="M26">
-        <v>5738.9309999999996</v>
+      <c r="M26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N26">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O26">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P26">
-        <v>673316.09727538598</v>
+      <c r="O26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2272,14 +2494,14 @@
       <c r="G27">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H27">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I27">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J27">
-        <v>2.4067537996163402E-2</v>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K27">
         <v>1350</v>
@@ -2287,17 +2509,17 @@
       <c r="L27">
         <v>16.7805</v>
       </c>
-      <c r="M27">
-        <v>5738.9309999999996</v>
+      <c r="M27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N27">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O27">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P27">
-        <v>673316.09727538598</v>
+      <c r="O27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2322,14 +2544,14 @@
       <c r="G28">
         <v>2634.0637450199201</v>
       </c>
-      <c r="H28">
-        <v>1517.2207171314701</v>
-      </c>
-      <c r="I28">
-        <v>667577.11553784797</v>
-      </c>
-      <c r="J28">
-        <v>2.4067537996163402E-2</v>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K28">
         <v>1350</v>
@@ -2337,17 +2559,17 @@
       <c r="L28">
         <v>16.7805</v>
       </c>
-      <c r="M28">
-        <v>5738.9309999999996</v>
+      <c r="M28" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N28">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O28">
-        <v>1534.00121713147</v>
-      </c>
-      <c r="P28">
-        <v>673316.09727538598</v>
+      <c r="O28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2372,14 +2594,14 @@
       <c r="G29">
         <v>4626.0956175298797</v>
       </c>
-      <c r="H29">
-        <v>2664.6310756972098</v>
-      </c>
-      <c r="I29">
-        <v>1172437.6733067699</v>
-      </c>
-      <c r="J29">
-        <v>4.2268806994245199E-2</v>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="K29">
         <v>1350</v>
@@ -2387,17 +2609,17 @@
       <c r="L29">
         <v>16.7805</v>
       </c>
-      <c r="M29">
-        <v>5738.9309999999996</v>
+      <c r="M29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N29">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O29">
-        <v>2681.4115756972101</v>
-      </c>
-      <c r="P29">
-        <v>1178176.6732455799</v>
+      <c r="O29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2410,11 +2632,11 @@
       <c r="C30">
         <v>1218.12749003984</v>
       </c>
-      <c r="D30">
-        <v>7333.1274900398303</v>
-      </c>
-      <c r="E30">
-        <v>494986.10557768802</v>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F30">
         <v>2.0294390691203402E-3</v>
@@ -2422,11 +2644,11 @@
       <c r="G30">
         <v>5400</v>
       </c>
-      <c r="H30">
-        <v>3110.3999999999901</v>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I30">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J30">
         <v>4.9340000000000002E-2</v>
@@ -2437,17 +2659,17 @@
       <c r="L30">
         <v>16.7805</v>
       </c>
-      <c r="M30">
-        <v>5738.9309999999996</v>
+      <c r="M30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N30">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O30">
-        <v>10460.307990039801</v>
-      </c>
-      <c r="P30">
-        <v>1869301.11461712</v>
+      <c r="O30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2460,11 +2682,11 @@
       <c r="C31">
         <v>3210.1593625497999</v>
       </c>
-      <c r="D31">
-        <v>19325.159362549701</v>
-      </c>
-      <c r="E31">
-        <v>1304448.2569721099</v>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F31">
         <v>5.3482274078289899E-3</v>
@@ -2472,11 +2694,11 @@
       <c r="G31">
         <v>5400</v>
       </c>
-      <c r="H31">
-        <v>3110.3999999999901</v>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I31">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J31">
         <v>4.9340000000000002E-2</v>
@@ -2487,46 +2709,46 @@
       <c r="L31">
         <v>16.7805</v>
       </c>
-      <c r="M31">
-        <v>5738.9309999999996</v>
+      <c r="M31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N31">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O31">
-        <v>22452.339862549699</v>
-      </c>
-      <c r="P31">
-        <v>2678763.2693303302</v>
+      <c r="O31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>15936.254980079601</v>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C32">
         <v>9186.2549800796805</v>
       </c>
-      <c r="D32">
-        <v>55301.254980079597</v>
-      </c>
-      <c r="E32">
-        <v>3732834.7111553699</v>
-      </c>
-      <c r="F32">
-        <v>1.53045924239549E-2</v>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G32">
         <v>5400</v>
       </c>
-      <c r="H32">
-        <v>3110.3999999999901</v>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I32">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J32">
         <v>4.9340000000000002E-2</v>
@@ -2537,17 +2759,17 @@
       <c r="L32">
         <v>16.7805</v>
       </c>
-      <c r="M32">
-        <v>5738.9309999999996</v>
+      <c r="M32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N32">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O32">
-        <v>58428.435480079599</v>
-      </c>
-      <c r="P32">
-        <v>5107149.7334699696</v>
+      <c r="O32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2560,23 +2782,23 @@
       <c r="C33">
         <v>13170.3187250996</v>
       </c>
-      <c r="D33">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E33">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F33">
-        <v>2.19421691013722E-2</v>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G33">
         <v>5400</v>
       </c>
-      <c r="H33">
-        <v>3110.3999999999901</v>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I33">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J33">
         <v>4.9340000000000002E-2</v>
@@ -2587,46 +2809,46 @@
       <c r="L33">
         <v>16.7805</v>
       </c>
-      <c r="M33">
-        <v>5738.9309999999996</v>
+      <c r="M33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N33">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O33">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P33">
-        <v>6726074.04289639</v>
+      <c r="O33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>23904.382470119501</v>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C34">
         <v>17154.382470119501</v>
       </c>
-      <c r="D34">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E34">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F34">
-        <v>2.8579745778789498E-2</v>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G34">
         <v>5400</v>
       </c>
-      <c r="H34">
-        <v>3110.3999999999901</v>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I34">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J34">
         <v>4.9340000000000002E-2</v>
@@ -2637,46 +2859,46 @@
       <c r="L34">
         <v>16.7805</v>
       </c>
-      <c r="M34">
-        <v>5738.9309999999996</v>
+      <c r="M34" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N34">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O34">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P34">
-        <v>8344998.3523228001</v>
+      <c r="O34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>27888.4462151394</v>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C35">
         <v>21138.4462151394</v>
       </c>
-      <c r="D35">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E35">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F35">
-        <v>3.5217322456206797E-2</v>
+      <c r="D35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G35">
         <v>5400</v>
       </c>
-      <c r="H35">
-        <v>3110.3999999999901</v>
+      <c r="H35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I35">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J35">
         <v>4.9340000000000002E-2</v>
@@ -2687,17 +2909,17 @@
       <c r="L35">
         <v>16.7805</v>
       </c>
-      <c r="M35">
-        <v>5738.9309999999996</v>
+      <c r="M35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N35">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O35">
-        <v>130380.62671513901</v>
+      <c r="O35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P35">
-        <v>9963922.6617492102</v>
+        <v>9964.03377784435</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2710,11 +2932,11 @@
       <c r="C36">
         <v>23130.478087649401</v>
       </c>
-      <c r="D36">
-        <v>139245.47808764901</v>
-      </c>
-      <c r="E36">
-        <v>9399069.7709163297</v>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F36">
         <v>3.85361107949155E-2</v>
@@ -2722,11 +2944,11 @@
       <c r="G36">
         <v>5400</v>
       </c>
-      <c r="H36">
-        <v>3110.3999999999901</v>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I36">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J36">
         <v>4.9340000000000002E-2</v>
@@ -2737,17 +2959,17 @@
       <c r="L36">
         <v>16.7805</v>
       </c>
-      <c r="M36">
-        <v>5738.9309999999996</v>
+      <c r="M36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N36">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O36">
-        <v>142372.658587649</v>
-      </c>
-      <c r="P36">
-        <v>10773384.816462399</v>
+      <c r="O36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2760,11 +2982,11 @@
       <c r="C37">
         <v>23130.478087649401</v>
       </c>
-      <c r="D37">
-        <v>139245.47808764901</v>
-      </c>
-      <c r="E37">
-        <v>9399069.7709163297</v>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F37">
         <v>3.85361107949155E-2</v>
@@ -2772,11 +2994,11 @@
       <c r="G37">
         <v>5400</v>
       </c>
-      <c r="H37">
-        <v>3110.3999999999901</v>
+      <c r="H37" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I37">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J37">
         <v>4.9340000000000002E-2</v>
@@ -2787,46 +3009,46 @@
       <c r="L37">
         <v>16.7805</v>
       </c>
-      <c r="M37">
-        <v>5738.9309999999996</v>
+      <c r="M37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N37">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O37">
-        <v>142372.658587649</v>
-      </c>
-      <c r="P37">
-        <v>10773384.816462399</v>
+      <c r="O37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>27888.4462151394</v>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C38">
         <v>21138.4462151394</v>
       </c>
-      <c r="D38">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E38">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F38">
-        <v>3.5217322456206797E-2</v>
+      <c r="D38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G38">
         <v>5400</v>
       </c>
-      <c r="H38">
-        <v>3110.3999999999901</v>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I38">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J38">
         <v>4.9340000000000002E-2</v>
@@ -2837,46 +3059,46 @@
       <c r="L38">
         <v>16.7805</v>
       </c>
-      <c r="M38">
-        <v>5738.9309999999996</v>
+      <c r="M38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N38">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O38">
-        <v>130380.62671513901</v>
+      <c r="O38" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P38">
-        <v>9963922.6617492102</v>
+        <v>9964.03377784435</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>25896.414342629399</v>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C39">
         <v>19146.414342629501</v>
       </c>
-      <c r="D39">
-        <v>115261.414342629</v>
-      </c>
-      <c r="E39">
-        <v>7780145.46812749</v>
-      </c>
-      <c r="F39">
-        <v>3.1898534117498198E-2</v>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G39">
         <v>5400</v>
       </c>
-      <c r="H39">
-        <v>3110.3999999999901</v>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I39">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J39">
         <v>4.9340000000000002E-2</v>
@@ -2887,46 +3109,46 @@
       <c r="L39">
         <v>16.7805</v>
       </c>
-      <c r="M39">
-        <v>5738.9309999999996</v>
+      <c r="M39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N39">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O39">
-        <v>118388.594842629</v>
-      </c>
-      <c r="P39">
-        <v>9154460.5070360303</v>
+      <c r="O39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>23904.382470119501</v>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C40">
         <v>17154.382470119501</v>
       </c>
-      <c r="D40">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E40">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F40">
-        <v>2.8579745778789498E-2</v>
+      <c r="D40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G40">
         <v>5400</v>
       </c>
-      <c r="H40">
-        <v>3110.3999999999901</v>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I40">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J40">
         <v>4.9340000000000002E-2</v>
@@ -2937,34 +3159,34 @@
       <c r="L40">
         <v>16.7805</v>
       </c>
-      <c r="M40">
-        <v>5738.9309999999996</v>
+      <c r="M40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N40">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O40">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P40">
-        <v>8344998.3523228001</v>
+      <c r="O40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>21912.3505976095</v>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C41">
         <v>15162.3505976096</v>
       </c>
-      <c r="D41">
-        <v>91277.350597609693</v>
+      <c r="D41" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>6161221.1653386597</v>
+        <v>6161.2211653386603</v>
       </c>
       <c r="F41">
         <v>2.5260957440081E-2</v>
@@ -2972,11 +3194,11 @@
       <c r="G41">
         <v>5400</v>
       </c>
-      <c r="H41">
-        <v>3110.3999999999901</v>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I41">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J41">
         <v>4.9340000000000002E-2</v>
@@ -2987,17 +3209,17 @@
       <c r="L41">
         <v>16.7805</v>
       </c>
-      <c r="M41">
-        <v>5738.9309999999996</v>
+      <c r="M41" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N41">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O41">
-        <v>94404.531097609695</v>
-      </c>
-      <c r="P41">
-        <v>7535536.1976096099</v>
+      <c r="O41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -3010,23 +3232,23 @@
       <c r="C42">
         <v>13170.3187250996</v>
       </c>
-      <c r="D42">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E42">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F42">
-        <v>2.19421691013722E-2</v>
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G42">
         <v>5400</v>
       </c>
-      <c r="H42">
-        <v>3110.3999999999901</v>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I42">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J42">
         <v>4.9340000000000002E-2</v>
@@ -3037,17 +3259,17 @@
       <c r="L42">
         <v>16.7805</v>
       </c>
-      <c r="M42">
-        <v>5738.9309999999996</v>
+      <c r="M42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N42">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O42">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P42">
-        <v>6726074.04289639</v>
+      <c r="O42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3060,23 +3282,23 @@
       <c r="C43">
         <v>13170.3187250996</v>
       </c>
-      <c r="D43">
-        <v>79285.318725099496</v>
-      </c>
-      <c r="E43">
-        <v>5351759.0139442198</v>
-      </c>
-      <c r="F43">
-        <v>2.19421691013722E-2</v>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G43">
         <v>5400</v>
       </c>
-      <c r="H43">
-        <v>3110.3999999999901</v>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I43">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J43">
         <v>4.9340000000000002E-2</v>
@@ -3087,46 +3309,46 @@
       <c r="L43">
         <v>16.7805</v>
       </c>
-      <c r="M43">
-        <v>5738.9309999999996</v>
+      <c r="M43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N43">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O43">
-        <v>82412.499225099498</v>
-      </c>
-      <c r="P43">
-        <v>6726074.04289639</v>
+      <c r="O43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>23904.382470119501</v>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C44">
         <v>17154.382470119501</v>
       </c>
-      <c r="D44">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E44">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F44">
-        <v>2.8579745778789498E-2</v>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G44">
         <v>5400</v>
       </c>
-      <c r="H44">
-        <v>3110.3999999999901</v>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I44">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J44">
         <v>4.9340000000000002E-2</v>
@@ -3137,46 +3359,46 @@
       <c r="L44">
         <v>16.7805</v>
       </c>
-      <c r="M44">
-        <v>5738.9309999999996</v>
+      <c r="M44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N44">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O44">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P44">
-        <v>8344998.3523228001</v>
+      <c r="O44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>27888.4462151394</v>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C45">
         <v>21138.4462151394</v>
       </c>
-      <c r="D45">
-        <v>127253.446215139</v>
-      </c>
-      <c r="E45">
-        <v>8589607.6195218898</v>
-      </c>
-      <c r="F45">
-        <v>3.5217322456206797E-2</v>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G45">
         <v>5400</v>
       </c>
-      <c r="H45">
-        <v>3110.3999999999901</v>
+      <c r="H45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I45">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J45">
         <v>4.9340000000000002E-2</v>
@@ -3187,34 +3409,34 @@
       <c r="L45">
         <v>16.7805</v>
       </c>
-      <c r="M45">
-        <v>5738.9309999999996</v>
+      <c r="M45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N45">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O45">
-        <v>130380.62671513901</v>
+      <c r="O45" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P45">
-        <v>9963922.6617492102</v>
+        <v>9964.03377784435</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>31872.509960159299</v>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C46">
         <v>25122.509960159401</v>
       </c>
-      <c r="D46">
-        <v>151237.50996015899</v>
-      </c>
-      <c r="E46">
-        <v>10208531.922310701</v>
+      <c r="D46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F46">
         <v>4.1854899133624203E-2</v>
@@ -3222,11 +3444,11 @@
       <c r="G46">
         <v>5400</v>
       </c>
-      <c r="H46">
-        <v>3110.3999999999901</v>
+      <c r="H46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I46">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J46">
         <v>4.9340000000000002E-2</v>
@@ -3237,46 +3459,46 @@
       <c r="L46">
         <v>16.7805</v>
       </c>
-      <c r="M46">
-        <v>5738.9309999999996</v>
+      <c r="M46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N46">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O46">
-        <v>154364.69046015901</v>
-      </c>
-      <c r="P46">
-        <v>11582846.9711756</v>
+      <c r="O46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>35856.573705179202</v>
+      <c r="B47" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C47">
         <v>29106.5737051793</v>
       </c>
-      <c r="D47">
-        <v>175221.57370517901</v>
-      </c>
-      <c r="E47">
-        <v>11827456.225099601</v>
-      </c>
-      <c r="F47">
-        <v>4.8492475811041498E-2</v>
+      <c r="D47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G47">
         <v>5400</v>
       </c>
-      <c r="H47">
-        <v>3110.3999999999901</v>
+      <c r="H47" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I47">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J47">
         <v>4.9340000000000002E-2</v>
@@ -3287,34 +3509,34 @@
       <c r="L47">
         <v>16.7805</v>
       </c>
-      <c r="M47">
-        <v>5738.9309999999996</v>
+      <c r="M47" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N47">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O47">
-        <v>178348.75420517899</v>
-      </c>
-      <c r="P47">
-        <v>13201771.280602001</v>
+      <c r="O47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>33864.541832669303</v>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C48">
         <v>27114.5418326693</v>
       </c>
-      <c r="D48">
-        <v>163229.541832669</v>
-      </c>
-      <c r="E48">
-        <v>11017994.0737051</v>
+      <c r="D48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F48">
         <v>4.5173687472332802E-2</v>
@@ -3322,11 +3544,11 @@
       <c r="G48">
         <v>5400</v>
       </c>
-      <c r="H48">
-        <v>3110.3999999999901</v>
+      <c r="H48" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I48">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J48">
         <v>4.9340000000000002E-2</v>
@@ -3337,46 +3559,46 @@
       <c r="L48">
         <v>16.7805</v>
       </c>
-      <c r="M48">
-        <v>5738.9309999999996</v>
+      <c r="M48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N48">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O48">
-        <v>166356.72233266899</v>
-      </c>
-      <c r="P48">
-        <v>12392309.1258888</v>
+      <c r="O48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>23904.382470119501</v>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C49">
         <v>17154.382470119501</v>
       </c>
-      <c r="D49">
-        <v>103269.382470119</v>
-      </c>
-      <c r="E49">
-        <v>6970683.3167330502</v>
-      </c>
-      <c r="F49">
-        <v>2.8579745778789498E-2</v>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5400</v>
       </c>
-      <c r="H49">
-        <v>3110.3999999999901</v>
+      <c r="H49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I49">
-        <v>1368575.99999999</v>
+        <v>1368.576</v>
       </c>
       <c r="J49">
         <v>4.9340000000000002E-2</v>
@@ -3387,17 +3609,66 @@
       <c r="L49">
         <v>16.7805</v>
       </c>
-      <c r="M49">
-        <v>5738.9309999999996</v>
+      <c r="M49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N49">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="O49">
-        <v>106396.562970119</v>
-      </c>
-      <c r="P49">
-        <v>8344998.3523228001</v>
+      <c r="O49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f>SUM(C2:C49)</f>
+        <v>694143.42629482038</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E2:F49)</f>
+        <v>12322.835809541546</v>
+      </c>
+      <c r="G51">
+        <f>SUM(G2:G49)</f>
+        <v>241056.57370517927</v>
+      </c>
+      <c r="I51">
+        <f>SUM(I2:J49)</f>
+        <v>54745.013599999991</v>
+      </c>
+      <c r="L51">
+        <f>SUM(L2:L49)</f>
+        <v>805.46399999999949</v>
+      </c>
+      <c r="N51">
+        <f>SUM(N2:O49)</f>
+        <v>1.2801599999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f>E51/C51</f>
+        <v>1.775257870742656E-2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52">
+        <f>I51/G51</f>
+        <v>0.22710442100183123</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N52">
+        <f>N51/L51</f>
+        <v>1.589344775185483E-3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
